--- a/Ресурсы/Products_import.xlsx
+++ b/Ресурсы/Products_import.xlsx
@@ -1,21 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Elena\30.06.24\All КОД\Образец\Ресурсы\Ресурсы\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lisav\Desktop\MasterPol\Ресурсы\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0ECE786C-6A44-47BC-967D-6DBF49EDAEB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="852" yWindow="1836" windowWidth="22104" windowHeight="10104" xr2:uid="{F87D516F-3434-46D1-973A-2CB2CFB69BBE}"/>
+    <workbookView xWindow="855" yWindow="1830" windowWidth="22110" windowHeight="10110"/>
   </bookViews>
   <sheets>
     <sheet name="Products_import" sheetId="1" r:id="rId1"/>
+    <sheet name="Product_type_import" sheetId="2" r:id="rId2"/>
+    <sheet name="Partners_import" sheetId="3" r:id="rId3"/>
+    <sheet name="PartnerType" sheetId="6" r:id="rId4"/>
+    <sheet name="PartnerName" sheetId="7" r:id="rId5"/>
+    <sheet name="Partner_products_import" sheetId="4" r:id="rId6"/>
+    <sheet name="Material_type_import" sheetId="5" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">Partner_products_import!$A$1:$G$17</definedName>
+  </definedNames>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="83">
   <si>
     <t>Тип продукции</t>
   </si>
@@ -70,16 +78,273 @@
   </si>
   <si>
     <t>Минимальная стоимость для партнера</t>
+  </si>
+  <si>
+    <t>Массивная доска</t>
+  </si>
+  <si>
+    <t>Коэффициент типа продукции</t>
+  </si>
+  <si>
+    <t>912 888 33 33</t>
+  </si>
+  <si>
+    <t>stepanov@stepan.ru</t>
+  </si>
+  <si>
+    <t>Степанов Степан Сергеевич</t>
+  </si>
+  <si>
+    <t>МонтажПро</t>
+  </si>
+  <si>
+    <t>ЗАО</t>
+  </si>
+  <si>
+    <t>444 222 33 11</t>
+  </si>
+  <si>
+    <t>ekaterina.vorobeva@ml.ru</t>
+  </si>
+  <si>
+    <t>Воробьева Екатерина Валерьевна</t>
+  </si>
+  <si>
+    <t>Ремонт и отделка</t>
+  </si>
+  <si>
+    <t>ОАО</t>
+  </si>
+  <si>
+    <t>812 223 32 00</t>
+  </si>
+  <si>
+    <t>ansolovev@st.ru</t>
+  </si>
+  <si>
+    <t>Соловьев Андрей Николаевич</t>
+  </si>
+  <si>
+    <t>Стройсервис</t>
+  </si>
+  <si>
+    <t>ПАО</t>
+  </si>
+  <si>
+    <t>987 123 56 78</t>
+  </si>
+  <si>
+    <t>vppetrov@vl.ru</t>
+  </si>
+  <si>
+    <t>Петров Василий Петрович</t>
+  </si>
+  <si>
+    <t>Паркет 29</t>
+  </si>
+  <si>
+    <t>ООО</t>
+  </si>
+  <si>
+    <t>493 123 45 67</t>
+  </si>
+  <si>
+    <t>aleksandraivanova@ml.ru</t>
+  </si>
+  <si>
+    <t>Иванова Александра Ивановна</t>
+  </si>
+  <si>
+    <t>База Строитель</t>
+  </si>
+  <si>
+    <t>Рейтинг</t>
+  </si>
+  <si>
+    <t>ИНН</t>
+  </si>
+  <si>
+    <t>Телефон партнера</t>
+  </si>
+  <si>
+    <t>Электронная почта партнера</t>
+  </si>
+  <si>
+    <t>Директор</t>
+  </si>
+  <si>
+    <t>Наименование партнера</t>
+  </si>
+  <si>
+    <t>Тип партнера</t>
+  </si>
+  <si>
+    <t>Дата продажи</t>
+  </si>
+  <si>
+    <t>Количество продукции</t>
+  </si>
+  <si>
+    <t>Продукция</t>
+  </si>
+  <si>
+    <t>Тип материала 5</t>
+  </si>
+  <si>
+    <t>Тип материала 4</t>
+  </si>
+  <si>
+    <t>Тип материала 3</t>
+  </si>
+  <si>
+    <t>Тип материала 2</t>
+  </si>
+  <si>
+    <t>Тип материала 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Процент брака материала </t>
+  </si>
+  <si>
+    <t>Тип материала</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>IdProductType</t>
+  </si>
+  <si>
+    <t>Id</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>IdPartnerType</t>
+  </si>
+  <si>
+    <t>Индекс</t>
+  </si>
+  <si>
+    <t>Область</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Кемеровская</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Архангельская</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ленинградская</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Московская</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Белгородская</t>
+  </si>
+  <si>
+    <t>Юрга</t>
+  </si>
+  <si>
+    <t>Северодвинск</t>
+  </si>
+  <si>
+    <t>Приморск</t>
+  </si>
+  <si>
+    <t>Реутов</t>
+  </si>
+  <si>
+    <t>СтарыйОскол</t>
+  </si>
+  <si>
+    <t>Город</t>
+  </si>
+  <si>
+    <t>Улица</t>
+  </si>
+  <si>
+    <t>Лесная</t>
+  </si>
+  <si>
+    <t>Строителей</t>
+  </si>
+  <si>
+    <t>Парковая</t>
+  </si>
+  <si>
+    <t>Свободы</t>
+  </si>
+  <si>
+    <t>Рабочая</t>
+  </si>
+  <si>
+    <t>Номер дома</t>
+  </si>
+  <si>
+    <t>IdPartnerName</t>
+  </si>
+  <si>
+    <t>IDProduct</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="[&lt;=9999999]###\-####;\(###\)\ ###\-####"/>
+    <numFmt numFmtId="166" formatCode="yyyy\-mm\-dd"/>
+  </numFmts>
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="204"/>
@@ -103,15 +368,51 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Процентный" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -422,103 +723,1216 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4425D53B-1D2F-4A0E-8E42-E22E2D559671}">
-  <dimension ref="A1:D6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.77734375" customWidth="1"/>
-    <col min="2" max="2" width="56.33203125" customWidth="1"/>
-    <col min="3" max="3" width="12.109375" customWidth="1"/>
-    <col min="4" max="4" width="34.6640625" customWidth="1"/>
+    <col min="1" max="1" width="9.140625" style="5"/>
+    <col min="2" max="2" width="14" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.7109375" style="5" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="60" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.5703125" style="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="37.140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="9.140625" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="5">
+        <v>1</v>
+      </c>
+      <c r="B2" s="5">
+        <f>LOOKUP(C2,Product_type_import!$B$2:$B$5,Product_type_import!$A$2:$A$5)</f>
+        <v>3</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="5">
+        <v>8858958</v>
+      </c>
+      <c r="F2" s="10">
+        <v>7330.99</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="5">
+        <v>2</v>
+      </c>
+      <c r="B3" s="5">
+        <f>LOOKUP(C3,Product_type_import!$B$2:$B$5,Product_type_import!$A$2:$A$5)</f>
+        <v>1</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="5">
+        <v>7750282</v>
+      </c>
+      <c r="F3" s="10">
+        <v>1799.33</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="5">
+        <v>3</v>
+      </c>
+      <c r="B4" s="5">
+        <f>LOOKUP(C4,Product_type_import!$B$2:$B$5,Product_type_import!$A$2:$A$5)</f>
+        <v>1</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="5">
+        <v>7028748</v>
+      </c>
+      <c r="F4" s="10">
+        <v>3890.41</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="5">
+        <v>4</v>
+      </c>
+      <c r="B5" s="5">
+        <f>LOOKUP(C5,Product_type_import!$B$2:$B$5,Product_type_import!$A$2:$A$5)</f>
+        <v>3</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E5" s="5">
+        <v>8758385</v>
+      </c>
+      <c r="F5" s="10">
+        <v>4456.8999999999996</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="5">
+        <v>5</v>
+      </c>
+      <c r="B6" s="5">
+        <f>LOOKUP(C6,Product_type_import!$B$2:$B$5,Product_type_import!$A$2:$A$5)</f>
+        <v>4</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" s="5">
+        <v>5012543</v>
+      </c>
+      <c r="F6" s="10">
+        <v>5450.59</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState ref="A2:F6">
+    <sortCondition ref="D2"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.140625" style="5"/>
+    <col min="2" max="2" width="21.85546875" style="5" customWidth="1"/>
+    <col min="3" max="3" width="27.28515625" style="5" customWidth="1"/>
+    <col min="4" max="16384" width="9.140625" style="5"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="5">
+        <v>1</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="9">
+        <v>2.35</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="5">
+        <v>2</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="9">
+        <v>5.15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="5">
+        <v>3</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="9">
+        <v>4.34</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="5">
+        <v>4</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="9">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B6" s="6"/>
+      <c r="C6" s="9"/>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B7" s="6"/>
+      <c r="C7" s="9"/>
+    </row>
+  </sheetData>
+  <sortState ref="A2:C7">
+    <sortCondition ref="B1"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:O6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G20" sqref="G20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.140625" style="5"/>
+    <col min="2" max="2" width="11.85546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" style="5" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="14.7109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="24.28515625" style="5" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="32.7109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="28" style="5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.28515625" style="5" customWidth="1"/>
+    <col min="9" max="9" width="7.7109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="23.140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="13.85546875" style="5" customWidth="1"/>
+    <col min="14" max="14" width="12.5703125" style="5" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="5"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="O1" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A2" s="5">
+        <v>1</v>
+      </c>
+      <c r="B2" s="5">
+        <f>LOOKUP(Partners_import!C2,PartnerType!$B$2:$B$5,PartnerType!$A$2:$A$5)</f>
+        <v>1</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" s="6">
+        <f>LOOKUP(E2,PartnerName!$B$2:$B$6,PartnerName!$A$2:$A$6)</f>
+        <v>1</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="H2" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="I2" s="5">
+        <v>652050</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="K2" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="L2" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="M2" s="5">
+        <v>15</v>
+      </c>
+      <c r="N2" s="5">
+        <v>2222455179</v>
+      </c>
+      <c r="O2" s="5">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A3" s="5">
+        <v>2</v>
+      </c>
+      <c r="B3" s="5">
+        <f>LOOKUP(Partners_import!C3,PartnerType!$B$2:$B$5,PartnerType!$A$2:$A$5)</f>
+        <v>3</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="D3" s="6">
+        <f>LOOKUP(E3,PartnerName!$B$2:$B$6,PartnerName!$A$2:$A$6)</f>
+        <v>3</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H3" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="I3" s="5">
+        <v>164500</v>
+      </c>
+      <c r="J3" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="K3" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="L3" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="M3" s="5">
+        <v>18</v>
+      </c>
+      <c r="N3" s="5">
+        <v>3333888520</v>
+      </c>
+      <c r="O3" s="5">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A4" s="5">
+        <v>3</v>
+      </c>
+      <c r="B4" s="5">
+        <f>LOOKUP(Partners_import!C4,PartnerType!$B$2:$B$5,PartnerType!$A$2:$A$5)</f>
+        <v>4</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="D4" s="6">
+        <f>LOOKUP(E4,PartnerName!$B$2:$B$6,PartnerName!$A$2:$A$6)</f>
+        <v>5</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="H4" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="I4" s="5">
+        <v>188910</v>
+      </c>
+      <c r="J4" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="K4" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="L4" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="M4" s="5">
+        <v>21</v>
+      </c>
+      <c r="N4" s="5">
+        <v>4440391035</v>
+      </c>
+      <c r="O4" s="5">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A5" s="5">
+        <v>4</v>
+      </c>
+      <c r="B5" s="5">
+        <f>LOOKUP(Partners_import!C5,PartnerType!$B$2:$B$5,PartnerType!$A$2:$A$5)</f>
+        <v>2</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" s="6">
+        <f>LOOKUP(E5,PartnerName!$B$2:$B$6,PartnerName!$A$2:$A$6)</f>
+        <v>4</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="H5" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="I5" s="5">
+        <v>143960</v>
+      </c>
+      <c r="J5" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="K5" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="L5" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="M5" s="5">
+        <v>51</v>
+      </c>
+      <c r="N5" s="5">
+        <v>1111520857</v>
+      </c>
+      <c r="O5" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A6" s="5">
+        <v>5</v>
+      </c>
+      <c r="B6" s="5">
+        <f>LOOKUP(Partners_import!C6,PartnerType!$B$2:$B$5,PartnerType!$A$2:$A$5)</f>
+        <v>1</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" s="6">
+        <f>LOOKUP(E6,PartnerName!$B$2:$B$6,PartnerName!$A$2:$A$6)</f>
+        <v>2</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H6" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="I6" s="5">
+        <v>309500</v>
+      </c>
+      <c r="J6" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="K6" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="L6" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="M6" s="5">
+        <v>122</v>
+      </c>
+      <c r="N6" s="5">
+        <v>5552431140</v>
+      </c>
+      <c r="O6" s="5">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="G2" r:id="rId1"/>
+    <hyperlink ref="G3" r:id="rId2"/>
+    <hyperlink ref="G4" r:id="rId3"/>
+    <hyperlink ref="G6" r:id="rId4"/>
+    <hyperlink ref="G5" r:id="rId5"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId6"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="16384" width="9.140625" style="5"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="5">
+        <v>1</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="5">
+        <v>2</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="5">
+        <v>3</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="5">
+        <v>4</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState ref="A1:B6">
+    <sortCondition ref="B2"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.140625" style="5"/>
+    <col min="2" max="2" width="17.5703125" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="9.140625" style="5"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="5">
+        <v>1</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="5">
+        <v>2</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="5">
+        <v>3</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="5">
+        <v>4</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="5">
+        <v>5</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>27</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState ref="A2:B17">
+    <sortCondition ref="B2"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M17"/>
+  <sheetViews>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I28" sqref="I28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.140625" style="5"/>
+    <col min="2" max="2" width="16.140625" style="5" customWidth="1"/>
+    <col min="3" max="3" width="57.42578125" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="14.7109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23.85546875" style="5" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="21.85546875" style="5" customWidth="1"/>
+    <col min="7" max="7" width="15.5703125" style="5" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="5"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F1" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="G1" s="11" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="5">
+        <v>1</v>
+      </c>
+      <c r="B2" s="5">
+        <f>LOOKUP(C2,Products_import!$D$2:$D$6,Products_import!$A$2:$A$6)</f>
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="5">
+        <f>LOOKUP(E2,PartnerName!$B$2:$B$6,PartnerName!$A$2:$A$6)</f>
+        <v>1</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="F2" s="12">
+        <v>15500</v>
+      </c>
+      <c r="G2" s="13">
+        <v>45008</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="5">
+        <v>2</v>
+      </c>
+      <c r="B3" s="5">
+        <f>LOOKUP(C3,Products_import!$D$2:$D$6,Products_import!$A$2:$A$6)</f>
+        <v>2</v>
+      </c>
+      <c r="C3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="5">
+        <f>LOOKUP(E3,PartnerName!$B$2:$B$6,PartnerName!$A$2:$A$6)</f>
+        <v>1</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="F3" s="12">
+        <v>12350</v>
+      </c>
+      <c r="G3" s="13">
+        <v>45278</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="5">
+        <v>3</v>
+      </c>
+      <c r="B4" s="5">
+        <f>LOOKUP(C4,Products_import!$D$2:$D$6,Products_import!$A$2:$A$6)</f>
+        <v>3</v>
+      </c>
+      <c r="C4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="5">
+        <f>LOOKUP(E4,PartnerName!$B$2:$B$6,PartnerName!$A$2:$A$6)</f>
+        <v>1</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="F4" s="12">
+        <v>37400</v>
+      </c>
+      <c r="G4" s="13">
+        <v>45450</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="5">
+        <v>4</v>
+      </c>
+      <c r="B5" s="5">
+        <f>LOOKUP(C5,Products_import!$D$2:$D$6,Products_import!$A$2:$A$6)</f>
+        <v>1</v>
+      </c>
+      <c r="C5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" s="5">
+        <f>LOOKUP(E5,PartnerName!$B$2:$B$6,PartnerName!$A$2:$A$6)</f>
+        <v>3</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="F5" s="12">
+        <v>35000</v>
+      </c>
+      <c r="G5" s="13">
+        <v>44897</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="5">
+        <v>5</v>
+      </c>
+      <c r="B6" s="5">
+        <f>LOOKUP(C6,Products_import!$D$2:$D$6,Products_import!$A$2:$A$6)</f>
+        <v>5</v>
+      </c>
+      <c r="C6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="5">
+        <f>LOOKUP(E6,PartnerName!$B$2:$B$6,PartnerName!$A$2:$A$6)</f>
+        <v>3</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="F6" s="12">
+        <v>1250</v>
+      </c>
+      <c r="G6" s="13">
+        <v>45063</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="5">
+        <v>6</v>
+      </c>
+      <c r="B7" s="5">
+        <f>LOOKUP(C7,Products_import!$D$2:$D$6,Products_import!$A$2:$A$6)</f>
+        <v>2</v>
+      </c>
+      <c r="C7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" s="5">
+        <f>LOOKUP(E7,PartnerName!$B$2:$B$6,PartnerName!$A$2:$A$6)</f>
+        <v>3</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="F7" s="12">
+        <v>1000</v>
+      </c>
+      <c r="G7" s="13">
+        <v>45450</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="5">
+        <v>7</v>
+      </c>
+      <c r="B8" s="5">
+        <f>LOOKUP(C8,Products_import!$D$2:$D$6,Products_import!$A$2:$A$6)</f>
+        <v>4</v>
+      </c>
+      <c r="C8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D8" s="5">
+        <f>LOOKUP(E8,PartnerName!$B$2:$B$6,PartnerName!$A$2:$A$6)</f>
+        <v>3</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="F8" s="12">
+        <v>7550</v>
+      </c>
+      <c r="G8" s="13">
+        <v>45474</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="5">
+        <v>8</v>
+      </c>
+      <c r="B9" s="5">
+        <f>LOOKUP(C9,Products_import!$D$2:$D$6,Products_import!$A$2:$A$6)</f>
+        <v>4</v>
+      </c>
+      <c r="C9" t="s">
+        <v>4</v>
+      </c>
+      <c r="D9" s="5">
+        <f>LOOKUP(E9,PartnerName!$B$2:$B$6,PartnerName!$A$2:$A$6)</f>
+        <v>5</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="F9" s="12">
+        <v>7250</v>
+      </c>
+      <c r="G9" s="13">
+        <v>44948</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="5">
+        <v>9</v>
+      </c>
+      <c r="B10" s="5">
+        <f>LOOKUP(C10,Products_import!$D$2:$D$6,Products_import!$A$2:$A$6)</f>
+        <v>1</v>
+      </c>
+      <c r="C10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D10" s="5">
+        <f>LOOKUP(E10,PartnerName!$B$2:$B$6,PartnerName!$A$2:$A$6)</f>
+        <v>5</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="F10" s="12">
+        <v>2500</v>
+      </c>
+      <c r="G10" s="13">
+        <v>45478</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="5">
+        <v>10</v>
+      </c>
+      <c r="B11" s="5">
+        <f>LOOKUP(C11,Products_import!$D$2:$D$6,Products_import!$A$2:$A$6)</f>
+        <v>3</v>
+      </c>
+      <c r="C11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D11" s="5">
+        <f>LOOKUP(E11,PartnerName!$B$2:$B$6,PartnerName!$A$2:$A$6)</f>
+        <v>4</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F11" s="12">
+        <v>59050</v>
+      </c>
+      <c r="G11" s="13">
+        <v>45005</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="5">
+        <v>11</v>
+      </c>
+      <c r="B12" s="5">
+        <f>LOOKUP(C12,Products_import!$D$2:$D$6,Products_import!$A$2:$A$6)</f>
+        <v>2</v>
+      </c>
+      <c r="C12" t="s">
+        <v>7</v>
+      </c>
+      <c r="D12" s="5">
+        <f>LOOKUP(E12,PartnerName!$B$2:$B$6,PartnerName!$A$2:$A$6)</f>
+        <v>4</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F12" s="12">
+        <v>37200</v>
+      </c>
+      <c r="G12" s="13">
+        <v>45363</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="5">
+        <v>12</v>
+      </c>
+      <c r="B13" s="5">
+        <f>LOOKUP(C13,Products_import!$D$2:$D$6,Products_import!$A$2:$A$6)</f>
+        <v>5</v>
+      </c>
+      <c r="C13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13" s="5">
+        <f>LOOKUP(E13,PartnerName!$B$2:$B$6,PartnerName!$A$2:$A$6)</f>
+        <v>4</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F13" s="12">
+        <v>4500</v>
+      </c>
+      <c r="G13" s="13">
+        <v>45426</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="5">
+        <v>13</v>
+      </c>
+      <c r="B14" s="5">
+        <f>LOOKUP(C14,Products_import!$D$2:$D$6,Products_import!$A$2:$A$6)</f>
+        <v>2</v>
+      </c>
+      <c r="C14" t="s">
+        <v>7</v>
+      </c>
+      <c r="D14" s="5">
+        <f>LOOKUP(E14,PartnerName!$B$2:$B$6,PartnerName!$A$2:$A$6)</f>
+        <v>2</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F14" s="12">
+        <v>50000</v>
+      </c>
+      <c r="G14" s="13">
+        <v>45188</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="5">
+        <v>14</v>
+      </c>
+      <c r="B15" s="5">
+        <f>LOOKUP(C15,Products_import!$D$2:$D$6,Products_import!$A$2:$A$6)</f>
+        <v>3</v>
+      </c>
+      <c r="C15" t="s">
+        <v>8</v>
+      </c>
+      <c r="D15" s="5">
+        <f>LOOKUP(E15,PartnerName!$B$2:$B$6,PartnerName!$A$2:$A$6)</f>
+        <v>2</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F15" s="12">
+        <v>670000</v>
+      </c>
+      <c r="G15" s="13">
+        <v>45240</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="5">
+        <v>15</v>
+      </c>
+      <c r="B16" s="5">
+        <f>LOOKUP(C16,Products_import!$D$2:$D$6,Products_import!$A$2:$A$6)</f>
+        <v>4</v>
+      </c>
+      <c r="C16" t="s">
+        <v>4</v>
+      </c>
+      <c r="D16" s="5">
+        <f>LOOKUP(E16,PartnerName!$B$2:$B$6,PartnerName!$A$2:$A$6)</f>
+        <v>2</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F16" s="12">
+        <v>35000</v>
+      </c>
+      <c r="G16" s="13">
+        <v>45397</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="5">
+        <v>16</v>
+      </c>
+      <c r="B17" s="5">
+        <f>LOOKUP(C17,Products_import!$D$2:$D$6,Products_import!$A$2:$A$6)</f>
+        <v>1</v>
+      </c>
+      <c r="C17" t="s">
+        <v>5</v>
+      </c>
+      <c r="D17" s="5">
+        <f>LOOKUP(E17,PartnerName!$B$2:$B$6,PartnerName!$A$2:$A$6)</f>
+        <v>2</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F17" s="12">
+        <v>25000</v>
+      </c>
+      <c r="G17" s="13">
+        <v>45455</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D26" sqref="D26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16.7109375" customWidth="1"/>
+    <col min="2" max="2" width="24.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>54</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2">
-        <v>8758385</v>
-      </c>
-      <c r="D2" s="1">
-        <v>4456.8999999999996</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+        <v>52</v>
+      </c>
+      <c r="B2" s="1">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3">
-        <v>8858958</v>
-      </c>
-      <c r="D3" s="1">
-        <v>7330.99</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+        <v>51</v>
+      </c>
+      <c r="B3" s="1">
+        <v>9.4999999999999998E-3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4">
-        <v>7750282</v>
-      </c>
-      <c r="D4" s="1">
-        <v>1799.33</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+        <v>50</v>
+      </c>
+      <c r="B4" s="1">
+        <v>2.8E-3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5">
-        <v>7028748</v>
-      </c>
-      <c r="D5" s="1">
-        <v>3890.41</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+        <v>49</v>
+      </c>
+      <c r="B5" s="1">
+        <v>5.4999999999999997E-3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6">
-        <v>5012543</v>
-      </c>
-      <c r="D6" s="1">
-        <v>5450.59</v>
+        <v>48</v>
+      </c>
+      <c r="B6" s="1">
+        <v>3.3999999999999998E-3</v>
       </c>
     </row>
   </sheetData>

--- a/Ресурсы/Products_import.xlsx
+++ b/Ресурсы/Products_import.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="855" yWindow="1830" windowWidth="22110" windowHeight="10110"/>
+    <workbookView xWindow="855" yWindow="1830" windowWidth="22110" windowHeight="10110" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Products_import" sheetId="1" r:id="rId1"/>
@@ -86,9 +86,6 @@
     <t>Коэффициент типа продукции</t>
   </si>
   <si>
-    <t>912 888 33 33</t>
-  </si>
-  <si>
     <t>stepanov@stepan.ru</t>
   </si>
   <si>
@@ -101,9 +98,6 @@
     <t>ЗАО</t>
   </si>
   <si>
-    <t>444 222 33 11</t>
-  </si>
-  <si>
     <t>ekaterina.vorobeva@ml.ru</t>
   </si>
   <si>
@@ -116,9 +110,6 @@
     <t>ОАО</t>
   </si>
   <si>
-    <t>812 223 32 00</t>
-  </si>
-  <si>
     <t>ansolovev@st.ru</t>
   </si>
   <si>
@@ -131,9 +122,6 @@
     <t>ПАО</t>
   </si>
   <si>
-    <t>987 123 56 78</t>
-  </si>
-  <si>
     <t>vppetrov@vl.ru</t>
   </si>
   <si>
@@ -146,9 +134,6 @@
     <t>ООО</t>
   </si>
   <si>
-    <t>493 123 45 67</t>
-  </si>
-  <si>
     <t>aleksandraivanova@ml.ru</t>
   </si>
   <si>
@@ -291,6 +276,21 @@
   </si>
   <si>
     <t>IDProduct</t>
+  </si>
+  <si>
+    <t>+7(493)-123-45-67</t>
+  </si>
+  <si>
+    <t>+7(987)-123-56-78</t>
+  </si>
+  <si>
+    <t>+7(812)-223-32-00</t>
+  </si>
+  <si>
+    <t>+7(444)-222-33-11</t>
+  </si>
+  <si>
+    <t>+7(912)-888-33-33</t>
   </si>
 </sst>
 </file>
@@ -299,7 +299,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="[&lt;=9999999]###\-####;\(###\)\ ###\-####"/>
-    <numFmt numFmtId="166" formatCode="yyyy\-mm\-dd"/>
+    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd"/>
   </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
@@ -374,7 +374,6 @@
   </cellStyleXfs>
   <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -406,8 +405,11 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -726,143 +728,143 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E36" sqref="E36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="5"/>
-    <col min="2" max="2" width="14" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.7109375" style="5" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="60" style="5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.5703125" style="5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="37.140625" style="5" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="9.140625" style="5"/>
+    <col min="1" max="1" width="9.140625" style="4"/>
+    <col min="2" max="2" width="14" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.7109375" style="4" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="60" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="37.140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="9.140625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="C1" s="3" t="s">
+    <row r="1" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="2" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="5">
+      <c r="A2" s="4">
         <v>1</v>
       </c>
-      <c r="B2" s="5">
+      <c r="B2" s="4">
         <f>LOOKUP(C2,Product_type_import!$B$2:$B$5,Product_type_import!$A$2:$A$5)</f>
         <v>3</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="5">
+      <c r="E2" s="4">
         <v>8858958</v>
       </c>
-      <c r="F2" s="10">
+      <c r="F2" s="9">
         <v>7330.99</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="5">
+      <c r="A3" s="4">
         <v>2</v>
       </c>
-      <c r="B3" s="5">
+      <c r="B3" s="4">
         <f>LOOKUP(C3,Product_type_import!$B$2:$B$5,Product_type_import!$A$2:$A$5)</f>
         <v>1</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="5">
+      <c r="E3" s="4">
         <v>7750282</v>
       </c>
-      <c r="F3" s="10">
+      <c r="F3" s="9">
         <v>1799.33</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="5">
+      <c r="A4" s="4">
         <v>3</v>
       </c>
-      <c r="B4" s="5">
+      <c r="B4" s="4">
         <f>LOOKUP(C4,Product_type_import!$B$2:$B$5,Product_type_import!$A$2:$A$5)</f>
         <v>1</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D4" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="5">
+      <c r="E4" s="4">
         <v>7028748</v>
       </c>
-      <c r="F4" s="10">
+      <c r="F4" s="9">
         <v>3890.41</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="5">
-        <v>4</v>
-      </c>
-      <c r="B5" s="5">
+      <c r="A5" s="4">
+        <v>4</v>
+      </c>
+      <c r="B5" s="4">
         <f>LOOKUP(C5,Product_type_import!$B$2:$B$5,Product_type_import!$A$2:$A$5)</f>
         <v>3</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="E5" s="5">
+      <c r="D5" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E5" s="4">
         <v>8758385</v>
       </c>
-      <c r="F5" s="10">
+      <c r="F5" s="9">
         <v>4456.8999999999996</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="5">
+      <c r="A6" s="4">
         <v>5</v>
       </c>
-      <c r="B6" s="5">
+      <c r="B6" s="4">
         <f>LOOKUP(C6,Product_type_import!$B$2:$B$5,Product_type_import!$A$2:$A$5)</f>
         <v>4</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="D6" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E6" s="5">
+      <c r="E6" s="4">
         <v>5012543</v>
       </c>
-      <c r="F6" s="10">
+      <c r="F6" s="9">
         <v>5450.59</v>
       </c>
     </row>
@@ -879,79 +881,79 @@
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="D39" sqref="D39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="5"/>
-    <col min="2" max="2" width="21.85546875" style="5" customWidth="1"/>
-    <col min="3" max="3" width="27.28515625" style="5" customWidth="1"/>
-    <col min="4" max="16384" width="9.140625" style="5"/>
+    <col min="1" max="1" width="9.140625" style="4"/>
+    <col min="2" max="2" width="21.85546875" style="4" customWidth="1"/>
+    <col min="3" max="3" width="29.42578125" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="9.140625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="B1" s="3" t="s">
+    <row r="1" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="5">
+      <c r="A2" s="4">
         <v>1</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="9">
+      <c r="C2" s="8">
         <v>2.35</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="5">
+      <c r="A3" s="4">
         <v>2</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="9">
+      <c r="C3" s="8">
         <v>5.15</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="5">
+      <c r="A4" s="4">
         <v>3</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="9">
+      <c r="C4" s="8">
         <v>4.34</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="5">
-        <v>4</v>
-      </c>
-      <c r="B5" s="5" t="s">
+      <c r="A5" s="4">
+        <v>4</v>
+      </c>
+      <c r="B5" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="9">
+      <c r="C5" s="8">
         <v>1.5</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B6" s="6"/>
-      <c r="C6" s="9"/>
+      <c r="B6" s="5"/>
+      <c r="C6" s="8"/>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B7" s="6"/>
-      <c r="C7" s="9"/>
+      <c r="B7" s="5"/>
+      <c r="C7" s="8"/>
     </row>
   </sheetData>
   <sortState ref="A2:C7">
@@ -964,321 +966,336 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O6"/>
+  <dimension ref="A1:O32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G28" sqref="G28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="5"/>
-    <col min="2" max="2" width="11.85546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" style="5" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="24.28515625" style="5" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="32.7109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="28" style="5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.28515625" style="5" customWidth="1"/>
-    <col min="9" max="9" width="7.7109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="23.140625" style="5" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.140625" style="5" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="13.85546875" style="5" customWidth="1"/>
-    <col min="14" max="14" width="12.5703125" style="5" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="5"/>
+    <col min="1" max="1" width="9.140625" style="4"/>
+    <col min="2" max="2" width="11.85546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" style="4" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="14.7109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="24.28515625" style="4" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="32.7109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="28" style="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="21" style="4" customWidth="1"/>
+    <col min="9" max="9" width="7.7109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="23.140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="13.85546875" style="4" customWidth="1"/>
+    <col min="14" max="14" width="12.5703125" style="4" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="J1" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="B1" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="K1" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="L1" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="M1" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="N1" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="O1" s="3" t="s">
-        <v>38</v>
+      <c r="K1" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2" s="5">
+      <c r="A2" s="4">
         <v>1</v>
       </c>
-      <c r="B2" s="5">
+      <c r="B2" s="4">
         <f>LOOKUP(Partners_import!C2,PartnerType!$B$2:$B$5,PartnerType!$A$2:$A$5)</f>
         <v>1</v>
       </c>
-      <c r="C2" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="D2" s="6">
+      <c r="C2" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" s="5">
         <f>LOOKUP(E2,PartnerName!$B$2:$B$6,PartnerName!$A$2:$A$6)</f>
         <v>1</v>
       </c>
-      <c r="E2" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="F2" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="G2" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="H2" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="I2" s="5">
+      <c r="E2" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="H2" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="I2" s="4">
         <v>652050</v>
       </c>
-      <c r="J2" s="5" t="s">
+      <c r="J2" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="K2" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="K2" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="L2" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="M2" s="5">
+      <c r="L2" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="M2" s="4">
         <v>15</v>
       </c>
-      <c r="N2" s="5">
+      <c r="N2" s="4">
         <v>2222455179</v>
       </c>
-      <c r="O2" s="5">
+      <c r="O2" s="4">
         <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3" s="5">
+      <c r="A3" s="4">
         <v>2</v>
       </c>
-      <c r="B3" s="5">
+      <c r="B3" s="4">
         <f>LOOKUP(Partners_import!C3,PartnerType!$B$2:$B$5,PartnerType!$A$2:$A$5)</f>
         <v>3</v>
       </c>
-      <c r="C3" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="D3" s="6">
+      <c r="C3" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="D3" s="5">
         <f>LOOKUP(E3,PartnerName!$B$2:$B$6,PartnerName!$A$2:$A$6)</f>
         <v>3</v>
       </c>
-      <c r="E3" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="F3" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="G3" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H3" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="I3" s="5">
+      <c r="E3" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="H3" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="I3" s="4">
         <v>164500</v>
       </c>
-      <c r="J3" s="5" t="s">
+      <c r="J3" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="K3" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="K3" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="L3" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="M3" s="5">
+      <c r="L3" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="M3" s="4">
         <v>18</v>
       </c>
-      <c r="N3" s="5">
+      <c r="N3" s="4">
         <v>3333888520</v>
       </c>
-      <c r="O3" s="5">
+      <c r="O3" s="4">
         <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A4" s="5">
+      <c r="A4" s="4">
         <v>3</v>
       </c>
-      <c r="B4" s="5">
+      <c r="B4" s="4">
         <f>LOOKUP(Partners_import!C4,PartnerType!$B$2:$B$5,PartnerType!$A$2:$A$5)</f>
         <v>4</v>
       </c>
-      <c r="C4" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="D4" s="6">
+      <c r="C4" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" s="5">
         <f>LOOKUP(E4,PartnerName!$B$2:$B$6,PartnerName!$A$2:$A$6)</f>
         <v>5</v>
       </c>
-      <c r="E4" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="H4" s="8" t="s">
+      <c r="E4" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="I4" s="5">
+      <c r="F4" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="H4" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="I4" s="4">
         <v>188910</v>
       </c>
-      <c r="J4" s="5" t="s">
+      <c r="J4" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="K4" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="K4" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="L4" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="M4" s="5">
+      <c r="L4" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="M4" s="4">
         <v>21</v>
       </c>
-      <c r="N4" s="5">
+      <c r="N4" s="4">
         <v>4440391035</v>
       </c>
-      <c r="O4" s="5">
+      <c r="O4" s="4">
         <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A5" s="5">
-        <v>4</v>
-      </c>
-      <c r="B5" s="5">
+      <c r="A5" s="4">
+        <v>4</v>
+      </c>
+      <c r="B5" s="4">
         <f>LOOKUP(Partners_import!C5,PartnerType!$B$2:$B$5,PartnerType!$A$2:$A$5)</f>
         <v>2</v>
       </c>
-      <c r="C5" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="D5" s="6">
+      <c r="C5" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5" s="5">
         <f>LOOKUP(E5,PartnerName!$B$2:$B$6,PartnerName!$A$2:$A$6)</f>
         <v>4</v>
       </c>
-      <c r="E5" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="G5" s="7" t="s">
+      <c r="E5" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="H5" s="8" t="s">
+      <c r="F5" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="I5" s="5">
+      <c r="G5" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="H5" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="I5" s="4">
         <v>143960</v>
       </c>
-      <c r="J5" s="5" t="s">
+      <c r="J5" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="K5" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="K5" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="L5" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="M5" s="5">
+      <c r="L5" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="M5" s="4">
         <v>51</v>
       </c>
-      <c r="N5" s="5">
+      <c r="N5" s="4">
         <v>1111520857</v>
       </c>
-      <c r="O5" s="5">
+      <c r="O5" s="4">
         <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A6" s="5">
+      <c r="A6" s="4">
         <v>5</v>
       </c>
-      <c r="B6" s="5">
+      <c r="B6" s="4">
         <f>LOOKUP(Partners_import!C6,PartnerType!$B$2:$B$5,PartnerType!$A$2:$A$5)</f>
         <v>1</v>
       </c>
-      <c r="C6" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="D6" s="6">
+      <c r="C6" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" s="5">
         <f>LOOKUP(E6,PartnerName!$B$2:$B$6,PartnerName!$A$2:$A$6)</f>
         <v>2</v>
       </c>
-      <c r="E6" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="F6" s="7" t="s">
+      <c r="E6" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="G6" s="7" t="s">
+      <c r="F6" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="H6" s="8" t="s">
+      <c r="G6" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="I6" s="5">
+      <c r="H6" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="I6" s="4">
         <v>309500</v>
       </c>
-      <c r="J6" s="5" t="s">
+      <c r="J6" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="K6" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="K6" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="L6" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="M6" s="5">
+      <c r="L6" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="M6" s="4">
         <v>122</v>
       </c>
-      <c r="N6" s="5">
+      <c r="N6" s="4">
         <v>5552431140</v>
       </c>
-      <c r="O6" s="5">
+      <c r="O6" s="4">
         <v>10</v>
       </c>
+    </row>
+    <row r="28" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F28" s="7"/>
+    </row>
+    <row r="29" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F29" s="7"/>
+    </row>
+    <row r="30" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F30" s="7"/>
+    </row>
+    <row r="31" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F31" s="7"/>
+    </row>
+    <row r="32" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F32" s="7"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -1303,47 +1320,47 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="9.140625" style="5"/>
+    <col min="1" max="16384" width="9.140625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>59</v>
+    <row r="1" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="5">
+      <c r="A2" s="4">
         <v>1</v>
       </c>
-      <c r="B2" s="5" t="s">
-        <v>18</v>
+      <c r="B2" s="4" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="5">
+      <c r="A3" s="4">
         <v>2</v>
       </c>
-      <c r="B3" s="5" t="s">
-        <v>23</v>
+      <c r="B3" s="4" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="5">
+      <c r="A4" s="4">
         <v>3</v>
       </c>
-      <c r="B4" s="5" t="s">
-        <v>33</v>
+      <c r="B4" s="4" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="5">
-        <v>4</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>28</v>
+      <c r="A5" s="4">
+        <v>4</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -1364,57 +1381,57 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="5"/>
-    <col min="2" max="2" width="17.5703125" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="9.140625" style="5"/>
+    <col min="1" max="1" width="9.140625" style="4"/>
+    <col min="2" max="2" width="17.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="9.140625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>59</v>
+    <row r="1" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="5">
+      <c r="A2" s="4">
         <v>1</v>
       </c>
-      <c r="B2" s="7" t="s">
-        <v>37</v>
+      <c r="B2" s="6" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="5">
+      <c r="A3" s="4">
         <v>2</v>
       </c>
-      <c r="B3" s="7" t="s">
-        <v>17</v>
+      <c r="B3" s="6" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="5">
+      <c r="A4" s="4">
         <v>3</v>
       </c>
-      <c r="B4" s="7" t="s">
-        <v>32</v>
+      <c r="B4" s="6" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="5">
-        <v>4</v>
-      </c>
-      <c r="B5" s="7" t="s">
-        <v>22</v>
+      <c r="A5" s="4">
+        <v>4</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="5">
+      <c r="A6" s="4">
         <v>5</v>
       </c>
-      <c r="B6" s="7" t="s">
-        <v>27</v>
+      <c r="B6" s="6" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -1427,7 +1444,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M17"/>
+  <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="I28" sqref="I28"/>
@@ -1435,436 +1452,436 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="5"/>
-    <col min="2" max="2" width="16.140625" style="5" customWidth="1"/>
+    <col min="1" max="1" width="9.140625" style="4"/>
+    <col min="2" max="2" width="16.140625" style="4" customWidth="1"/>
     <col min="3" max="3" width="57.42578125" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="23.85546875" style="5" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="21.85546875" style="5" customWidth="1"/>
-    <col min="7" max="7" width="15.5703125" style="5" customWidth="1"/>
-    <col min="8" max="16384" width="9.140625" style="5"/>
+    <col min="4" max="4" width="14.7109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23.85546875" style="4" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="21.85546875" style="4" customWidth="1"/>
+    <col min="7" max="7" width="15.5703125" style="4" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="F1" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="G1" s="11" t="s">
-        <v>45</v>
+    <row r="1" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F1" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="G1" s="10" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="5">
+      <c r="A2" s="4">
         <v>1</v>
       </c>
-      <c r="B2" s="5">
+      <c r="B2" s="4">
         <f>LOOKUP(C2,Products_import!$D$2:$D$6,Products_import!$A$2:$A$6)</f>
         <v>4</v>
       </c>
       <c r="C2" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="5">
+      <c r="D2" s="4">
         <f>LOOKUP(E2,PartnerName!$B$2:$B$6,PartnerName!$A$2:$A$6)</f>
         <v>1</v>
       </c>
-      <c r="E2" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="F2" s="12">
+      <c r="E2" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="F2" s="11">
         <v>15500</v>
       </c>
-      <c r="G2" s="13">
+      <c r="G2" s="12">
         <v>45008</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="5">
+      <c r="A3" s="4">
         <v>2</v>
       </c>
-      <c r="B3" s="5">
+      <c r="B3" s="4">
         <f>LOOKUP(C3,Products_import!$D$2:$D$6,Products_import!$A$2:$A$6)</f>
         <v>2</v>
       </c>
       <c r="C3" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="5">
+      <c r="D3" s="4">
         <f>LOOKUP(E3,PartnerName!$B$2:$B$6,PartnerName!$A$2:$A$6)</f>
         <v>1</v>
       </c>
-      <c r="E3" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="F3" s="12">
+      <c r="E3" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="F3" s="11">
         <v>12350</v>
       </c>
-      <c r="G3" s="13">
+      <c r="G3" s="12">
         <v>45278</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="5">
+      <c r="A4" s="4">
         <v>3</v>
       </c>
-      <c r="B4" s="5">
+      <c r="B4" s="4">
         <f>LOOKUP(C4,Products_import!$D$2:$D$6,Products_import!$A$2:$A$6)</f>
         <v>3</v>
       </c>
       <c r="C4" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="5">
+      <c r="D4" s="4">
         <f>LOOKUP(E4,PartnerName!$B$2:$B$6,PartnerName!$A$2:$A$6)</f>
         <v>1</v>
       </c>
-      <c r="E4" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="F4" s="12">
+      <c r="E4" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="F4" s="11">
         <v>37400</v>
       </c>
-      <c r="G4" s="13">
+      <c r="G4" s="12">
         <v>45450</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="5">
-        <v>4</v>
-      </c>
-      <c r="B5" s="5">
+      <c r="A5" s="4">
+        <v>4</v>
+      </c>
+      <c r="B5" s="4">
         <f>LOOKUP(C5,Products_import!$D$2:$D$6,Products_import!$A$2:$A$6)</f>
         <v>1</v>
       </c>
       <c r="C5" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="5">
+      <c r="D5" s="4">
         <f>LOOKUP(E5,PartnerName!$B$2:$B$6,PartnerName!$A$2:$A$6)</f>
         <v>3</v>
       </c>
-      <c r="E5" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="F5" s="12">
+      <c r="E5" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="F5" s="11">
         <v>35000</v>
       </c>
-      <c r="G5" s="13">
+      <c r="G5" s="12">
         <v>44897</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="5">
+      <c r="A6" s="4">
         <v>5</v>
       </c>
-      <c r="B6" s="5">
+      <c r="B6" s="4">
         <f>LOOKUP(C6,Products_import!$D$2:$D$6,Products_import!$A$2:$A$6)</f>
         <v>5</v>
       </c>
       <c r="C6" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="5">
+      <c r="D6" s="4">
         <f>LOOKUP(E6,PartnerName!$B$2:$B$6,PartnerName!$A$2:$A$6)</f>
         <v>3</v>
       </c>
-      <c r="E6" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="F6" s="12">
+      <c r="E6" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="F6" s="11">
         <v>1250</v>
       </c>
-      <c r="G6" s="13">
+      <c r="G6" s="12">
         <v>45063</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="5">
+      <c r="A7" s="4">
         <v>6</v>
       </c>
-      <c r="B7" s="5">
+      <c r="B7" s="4">
         <f>LOOKUP(C7,Products_import!$D$2:$D$6,Products_import!$A$2:$A$6)</f>
         <v>2</v>
       </c>
       <c r="C7" t="s">
         <v>7</v>
       </c>
-      <c r="D7" s="5">
+      <c r="D7" s="4">
         <f>LOOKUP(E7,PartnerName!$B$2:$B$6,PartnerName!$A$2:$A$6)</f>
         <v>3</v>
       </c>
-      <c r="E7" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="F7" s="12">
+      <c r="E7" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="F7" s="11">
         <v>1000</v>
       </c>
-      <c r="G7" s="13">
+      <c r="G7" s="12">
         <v>45450</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="5">
+      <c r="A8" s="4">
         <v>7</v>
       </c>
-      <c r="B8" s="5">
+      <c r="B8" s="4">
         <f>LOOKUP(C8,Products_import!$D$2:$D$6,Products_import!$A$2:$A$6)</f>
         <v>4</v>
       </c>
       <c r="C8" t="s">
         <v>4</v>
       </c>
-      <c r="D8" s="5">
+      <c r="D8" s="4">
         <f>LOOKUP(E8,PartnerName!$B$2:$B$6,PartnerName!$A$2:$A$6)</f>
         <v>3</v>
       </c>
-      <c r="E8" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="F8" s="12">
+      <c r="E8" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="F8" s="11">
         <v>7550</v>
       </c>
-      <c r="G8" s="13">
+      <c r="G8" s="12">
         <v>45474</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="5">
+      <c r="A9" s="4">
         <v>8</v>
       </c>
-      <c r="B9" s="5">
+      <c r="B9" s="4">
         <f>LOOKUP(C9,Products_import!$D$2:$D$6,Products_import!$A$2:$A$6)</f>
         <v>4</v>
       </c>
       <c r="C9" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="5">
+      <c r="D9" s="4">
         <f>LOOKUP(E9,PartnerName!$B$2:$B$6,PartnerName!$A$2:$A$6)</f>
         <v>5</v>
       </c>
-      <c r="E9" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="F9" s="12">
+      <c r="E9" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="F9" s="11">
         <v>7250</v>
       </c>
-      <c r="G9" s="13">
+      <c r="G9" s="12">
         <v>44948</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="5">
+      <c r="A10" s="4">
         <v>9</v>
       </c>
-      <c r="B10" s="5">
+      <c r="B10" s="4">
         <f>LOOKUP(C10,Products_import!$D$2:$D$6,Products_import!$A$2:$A$6)</f>
         <v>1</v>
       </c>
       <c r="C10" t="s">
         <v>5</v>
       </c>
-      <c r="D10" s="5">
+      <c r="D10" s="4">
         <f>LOOKUP(E10,PartnerName!$B$2:$B$6,PartnerName!$A$2:$A$6)</f>
         <v>5</v>
       </c>
-      <c r="E10" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="F10" s="12">
+      <c r="E10" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="F10" s="11">
         <v>2500</v>
       </c>
-      <c r="G10" s="13">
+      <c r="G10" s="12">
         <v>45478</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="5">
+      <c r="A11" s="4">
         <v>10</v>
       </c>
-      <c r="B11" s="5">
+      <c r="B11" s="4">
         <f>LOOKUP(C11,Products_import!$D$2:$D$6,Products_import!$A$2:$A$6)</f>
         <v>3</v>
       </c>
       <c r="C11" t="s">
         <v>8</v>
       </c>
-      <c r="D11" s="5">
+      <c r="D11" s="4">
         <f>LOOKUP(E11,PartnerName!$B$2:$B$6,PartnerName!$A$2:$A$6)</f>
         <v>4</v>
       </c>
-      <c r="E11" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="F11" s="12">
+      <c r="E11" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="F11" s="11">
         <v>59050</v>
       </c>
-      <c r="G11" s="13">
+      <c r="G11" s="12">
         <v>45005</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="5">
+      <c r="A12" s="4">
         <v>11</v>
       </c>
-      <c r="B12" s="5">
+      <c r="B12" s="4">
         <f>LOOKUP(C12,Products_import!$D$2:$D$6,Products_import!$A$2:$A$6)</f>
         <v>2</v>
       </c>
       <c r="C12" t="s">
         <v>7</v>
       </c>
-      <c r="D12" s="5">
+      <c r="D12" s="4">
         <f>LOOKUP(E12,PartnerName!$B$2:$B$6,PartnerName!$A$2:$A$6)</f>
         <v>4</v>
       </c>
-      <c r="E12" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="F12" s="12">
+      <c r="E12" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="F12" s="11">
         <v>37200</v>
       </c>
-      <c r="G12" s="13">
+      <c r="G12" s="12">
         <v>45363</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="5">
+      <c r="A13" s="4">
         <v>12</v>
       </c>
-      <c r="B13" s="5">
+      <c r="B13" s="4">
         <f>LOOKUP(C13,Products_import!$D$2:$D$6,Products_import!$A$2:$A$6)</f>
         <v>5</v>
       </c>
       <c r="C13" t="s">
         <v>10</v>
       </c>
-      <c r="D13" s="5">
+      <c r="D13" s="4">
         <f>LOOKUP(E13,PartnerName!$B$2:$B$6,PartnerName!$A$2:$A$6)</f>
         <v>4</v>
       </c>
-      <c r="E13" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="F13" s="12">
+      <c r="E13" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="F13" s="11">
         <v>4500</v>
       </c>
-      <c r="G13" s="13">
+      <c r="G13" s="12">
         <v>45426</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="5">
+      <c r="A14" s="4">
         <v>13</v>
       </c>
-      <c r="B14" s="5">
+      <c r="B14" s="4">
         <f>LOOKUP(C14,Products_import!$D$2:$D$6,Products_import!$A$2:$A$6)</f>
         <v>2</v>
       </c>
       <c r="C14" t="s">
         <v>7</v>
       </c>
-      <c r="D14" s="5">
+      <c r="D14" s="4">
         <f>LOOKUP(E14,PartnerName!$B$2:$B$6,PartnerName!$A$2:$A$6)</f>
         <v>2</v>
       </c>
-      <c r="E14" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="F14" s="12">
+      <c r="E14" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F14" s="11">
         <v>50000</v>
       </c>
-      <c r="G14" s="13">
+      <c r="G14" s="12">
         <v>45188</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="5">
+      <c r="A15" s="4">
         <v>14</v>
       </c>
-      <c r="B15" s="5">
+      <c r="B15" s="4">
         <f>LOOKUP(C15,Products_import!$D$2:$D$6,Products_import!$A$2:$A$6)</f>
         <v>3</v>
       </c>
       <c r="C15" t="s">
         <v>8</v>
       </c>
-      <c r="D15" s="5">
+      <c r="D15" s="4">
         <f>LOOKUP(E15,PartnerName!$B$2:$B$6,PartnerName!$A$2:$A$6)</f>
         <v>2</v>
       </c>
-      <c r="E15" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="F15" s="12">
+      <c r="E15" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F15" s="11">
         <v>670000</v>
       </c>
-      <c r="G15" s="13">
+      <c r="G15" s="12">
         <v>45240</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="5">
+      <c r="A16" s="4">
         <v>15</v>
       </c>
-      <c r="B16" s="5">
+      <c r="B16" s="4">
         <f>LOOKUP(C16,Products_import!$D$2:$D$6,Products_import!$A$2:$A$6)</f>
         <v>4</v>
       </c>
       <c r="C16" t="s">
         <v>4</v>
       </c>
-      <c r="D16" s="5">
+      <c r="D16" s="4">
         <f>LOOKUP(E16,PartnerName!$B$2:$B$6,PartnerName!$A$2:$A$6)</f>
         <v>2</v>
       </c>
-      <c r="E16" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="F16" s="12">
+      <c r="E16" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F16" s="11">
         <v>35000</v>
       </c>
-      <c r="G16" s="13">
+      <c r="G16" s="12">
         <v>45397</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="5">
+      <c r="A17" s="4">
         <v>16</v>
       </c>
-      <c r="B17" s="5">
+      <c r="B17" s="4">
         <f>LOOKUP(C17,Products_import!$D$2:$D$6,Products_import!$A$2:$A$6)</f>
         <v>1</v>
       </c>
       <c r="C17" t="s">
         <v>5</v>
       </c>
-      <c r="D17" s="5">
+      <c r="D17" s="4">
         <f>LOOKUP(E17,PartnerName!$B$2:$B$6,PartnerName!$A$2:$A$6)</f>
         <v>2</v>
       </c>
-      <c r="E17" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="F17" s="12">
+      <c r="E17" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F17" s="11">
         <v>25000</v>
       </c>
-      <c r="G17" s="13">
+      <c r="G17" s="12">
         <v>45455</v>
       </c>
     </row>
@@ -1878,60 +1895,61 @@
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.7109375" customWidth="1"/>
-    <col min="2" max="2" width="24.42578125" customWidth="1"/>
+    <col min="1" max="1" width="16.140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="9.140625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>54</v>
-      </c>
-      <c r="B1" t="s">
-        <v>53</v>
+    <row r="1" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>52</v>
-      </c>
-      <c r="B2" s="1">
+      <c r="A2" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B2" s="13">
         <v>1E-3</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>51</v>
-      </c>
-      <c r="B3" s="1">
+      <c r="A3" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B3" s="13">
         <v>9.4999999999999998E-3</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>50</v>
-      </c>
-      <c r="B4" s="1">
+      <c r="A4" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B4" s="13">
         <v>2.8E-3</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>49</v>
-      </c>
-      <c r="B5" s="1">
+      <c r="A5" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B5" s="13">
         <v>5.4999999999999997E-3</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>48</v>
-      </c>
-      <c r="B6" s="1">
+      <c r="A6" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B6" s="13">
         <v>3.3999999999999998E-3</v>
       </c>
     </row>

--- a/Ресурсы/Products_import.xlsx
+++ b/Ресурсы/Products_import.xlsx
@@ -5,23 +5,29 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lisav\Desktop\MasterPol\Ресурсы\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lisav\Desktop\MasterPolApp\Ресурсы\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="855" yWindow="1830" windowWidth="22110" windowHeight="10110" activeTab="2"/>
+    <workbookView xWindow="855" yWindow="1830" windowWidth="22110" windowHeight="10110" firstSheet="3" activeTab="12"/>
   </bookViews>
   <sheets>
     <sheet name="Products_import" sheetId="1" r:id="rId1"/>
     <sheet name="Product_type_import" sheetId="2" r:id="rId2"/>
     <sheet name="Partners_import" sheetId="3" r:id="rId3"/>
-    <sheet name="PartnerType" sheetId="6" r:id="rId4"/>
-    <sheet name="PartnerName" sheetId="7" r:id="rId5"/>
-    <sheet name="Partner_products_import" sheetId="4" r:id="rId6"/>
-    <sheet name="Material_type_import" sheetId="5" r:id="rId7"/>
+    <sheet name="Adress" sheetId="9" r:id="rId4"/>
+    <sheet name="Street" sheetId="13" r:id="rId5"/>
+    <sheet name="City" sheetId="12" r:id="rId6"/>
+    <sheet name="Area" sheetId="11" r:id="rId7"/>
+    <sheet name="Index" sheetId="10" r:id="rId8"/>
+    <sheet name="DirectorName" sheetId="8" r:id="rId9"/>
+    <sheet name="PartnerType" sheetId="6" r:id="rId10"/>
+    <sheet name="PartnerName" sheetId="7" r:id="rId11"/>
+    <sheet name="Partner_products_import" sheetId="4" r:id="rId12"/>
+    <sheet name="Material_type_import" sheetId="5" r:id="rId13"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">Partner_products_import!$A$1:$G$17</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="11" hidden="1">Partner_products_import!$A$1:$G$17</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -42,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="90">
   <si>
     <t>Тип продукции</t>
   </si>
@@ -291,6 +297,27 @@
   </si>
   <si>
     <t>+7(912)-888-33-33</t>
+  </si>
+  <si>
+    <t>IdDirector</t>
+  </si>
+  <si>
+    <t>IdIndex</t>
+  </si>
+  <si>
+    <t>IdArea</t>
+  </si>
+  <si>
+    <t>IdCity</t>
+  </si>
+  <si>
+    <t>IdStreet</t>
+  </si>
+  <si>
+    <t>IndexNum</t>
+  </si>
+  <si>
+    <t>StreetName</t>
   </si>
 </sst>
 </file>
@@ -876,6 +903,673 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="16384" width="9.140625" style="4"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="4">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="4">
+        <v>2</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="4">
+        <v>4</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState ref="A1:B6">
+    <sortCondition ref="B2"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.140625" style="4"/>
+    <col min="2" max="2" width="17.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="9.140625" style="4"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="4">
+        <v>1</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="4">
+        <v>2</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="4">
+        <v>4</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="4">
+        <v>5</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState ref="A2:B17">
+    <sortCondition ref="B2"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G17"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.140625" style="4"/>
+    <col min="2" max="2" width="16.140625" style="4" customWidth="1"/>
+    <col min="3" max="3" width="57.42578125" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="14.7109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="24.28515625" style="4" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="21.85546875" style="4" customWidth="1"/>
+    <col min="7" max="7" width="15.5703125" style="4" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="4"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F1" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="G1" s="10" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="4">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4">
+        <f>LOOKUP(C2,Products_import!$D$2:$D$6,Products_import!$A$2:$A$6)</f>
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="4">
+        <f>LOOKUP(E2,PartnerName!$B$2:$B$6,PartnerName!$A$2:$A$6)</f>
+        <v>1</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="F2" s="11">
+        <v>15500</v>
+      </c>
+      <c r="G2" s="12">
+        <v>45008</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="4">
+        <v>2</v>
+      </c>
+      <c r="B3" s="4">
+        <f>LOOKUP(C3,Products_import!$D$2:$D$6,Products_import!$A$2:$A$6)</f>
+        <v>2</v>
+      </c>
+      <c r="C3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="4">
+        <f>LOOKUP(E3,PartnerName!$B$2:$B$6,PartnerName!$A$2:$A$6)</f>
+        <v>1</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="F3" s="11">
+        <v>12350</v>
+      </c>
+      <c r="G3" s="12">
+        <v>45278</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="4">
+        <f>LOOKUP(C4,Products_import!$D$2:$D$6,Products_import!$A$2:$A$6)</f>
+        <v>3</v>
+      </c>
+      <c r="C4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="4">
+        <f>LOOKUP(E4,PartnerName!$B$2:$B$6,PartnerName!$A$2:$A$6)</f>
+        <v>1</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="F4" s="11">
+        <v>37400</v>
+      </c>
+      <c r="G4" s="12">
+        <v>45450</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="4">
+        <v>4</v>
+      </c>
+      <c r="B5" s="4">
+        <f>LOOKUP(C5,Products_import!$D$2:$D$6,Products_import!$A$2:$A$6)</f>
+        <v>1</v>
+      </c>
+      <c r="C5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" s="4">
+        <f>LOOKUP(E5,PartnerName!$B$2:$B$6,PartnerName!$A$2:$A$6)</f>
+        <v>3</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="F5" s="11">
+        <v>35000</v>
+      </c>
+      <c r="G5" s="12">
+        <v>44897</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="4">
+        <v>5</v>
+      </c>
+      <c r="B6" s="4">
+        <f>LOOKUP(C6,Products_import!$D$2:$D$6,Products_import!$A$2:$A$6)</f>
+        <v>5</v>
+      </c>
+      <c r="C6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="4">
+        <f>LOOKUP(E6,PartnerName!$B$2:$B$6,PartnerName!$A$2:$A$6)</f>
+        <v>3</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="F6" s="11">
+        <v>1250</v>
+      </c>
+      <c r="G6" s="12">
+        <v>45063</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="4">
+        <v>6</v>
+      </c>
+      <c r="B7" s="4">
+        <f>LOOKUP(C7,Products_import!$D$2:$D$6,Products_import!$A$2:$A$6)</f>
+        <v>2</v>
+      </c>
+      <c r="C7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" s="4">
+        <f>LOOKUP(E7,PartnerName!$B$2:$B$6,PartnerName!$A$2:$A$6)</f>
+        <v>3</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="F7" s="11">
+        <v>1000</v>
+      </c>
+      <c r="G7" s="12">
+        <v>45450</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="4">
+        <v>7</v>
+      </c>
+      <c r="B8" s="4">
+        <f>LOOKUP(C8,Products_import!$D$2:$D$6,Products_import!$A$2:$A$6)</f>
+        <v>4</v>
+      </c>
+      <c r="C8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D8" s="4">
+        <f>LOOKUP(E8,PartnerName!$B$2:$B$6,PartnerName!$A$2:$A$6)</f>
+        <v>3</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="F8" s="11">
+        <v>7550</v>
+      </c>
+      <c r="G8" s="12">
+        <v>45474</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="4">
+        <v>8</v>
+      </c>
+      <c r="B9" s="4">
+        <f>LOOKUP(C9,Products_import!$D$2:$D$6,Products_import!$A$2:$A$6)</f>
+        <v>4</v>
+      </c>
+      <c r="C9" t="s">
+        <v>4</v>
+      </c>
+      <c r="D9" s="4">
+        <f>LOOKUP(E9,PartnerName!$B$2:$B$6,PartnerName!$A$2:$A$6)</f>
+        <v>5</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="F9" s="11">
+        <v>7250</v>
+      </c>
+      <c r="G9" s="12">
+        <v>44948</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="4">
+        <v>9</v>
+      </c>
+      <c r="B10" s="4">
+        <f>LOOKUP(C10,Products_import!$D$2:$D$6,Products_import!$A$2:$A$6)</f>
+        <v>1</v>
+      </c>
+      <c r="C10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D10" s="4">
+        <f>LOOKUP(E10,PartnerName!$B$2:$B$6,PartnerName!$A$2:$A$6)</f>
+        <v>5</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="F10" s="11">
+        <v>2500</v>
+      </c>
+      <c r="G10" s="12">
+        <v>45478</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="4">
+        <v>10</v>
+      </c>
+      <c r="B11" s="4">
+        <f>LOOKUP(C11,Products_import!$D$2:$D$6,Products_import!$A$2:$A$6)</f>
+        <v>3</v>
+      </c>
+      <c r="C11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D11" s="4">
+        <f>LOOKUP(E11,PartnerName!$B$2:$B$6,PartnerName!$A$2:$A$6)</f>
+        <v>4</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="F11" s="11">
+        <v>59050</v>
+      </c>
+      <c r="G11" s="12">
+        <v>45005</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="4">
+        <v>11</v>
+      </c>
+      <c r="B12" s="4">
+        <f>LOOKUP(C12,Products_import!$D$2:$D$6,Products_import!$A$2:$A$6)</f>
+        <v>2</v>
+      </c>
+      <c r="C12" t="s">
+        <v>7</v>
+      </c>
+      <c r="D12" s="4">
+        <f>LOOKUP(E12,PartnerName!$B$2:$B$6,PartnerName!$A$2:$A$6)</f>
+        <v>4</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="F12" s="11">
+        <v>37200</v>
+      </c>
+      <c r="G12" s="12">
+        <v>45363</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="4">
+        <v>12</v>
+      </c>
+      <c r="B13" s="4">
+        <f>LOOKUP(C13,Products_import!$D$2:$D$6,Products_import!$A$2:$A$6)</f>
+        <v>5</v>
+      </c>
+      <c r="C13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13" s="4">
+        <f>LOOKUP(E13,PartnerName!$B$2:$B$6,PartnerName!$A$2:$A$6)</f>
+        <v>4</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="F13" s="11">
+        <v>4500</v>
+      </c>
+      <c r="G13" s="12">
+        <v>45426</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="4">
+        <v>13</v>
+      </c>
+      <c r="B14" s="4">
+        <f>LOOKUP(C14,Products_import!$D$2:$D$6,Products_import!$A$2:$A$6)</f>
+        <v>2</v>
+      </c>
+      <c r="C14" t="s">
+        <v>7</v>
+      </c>
+      <c r="D14" s="4">
+        <f>LOOKUP(E14,PartnerName!$B$2:$B$6,PartnerName!$A$2:$A$6)</f>
+        <v>2</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F14" s="11">
+        <v>50000</v>
+      </c>
+      <c r="G14" s="12">
+        <v>45188</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="4">
+        <v>14</v>
+      </c>
+      <c r="B15" s="4">
+        <f>LOOKUP(C15,Products_import!$D$2:$D$6,Products_import!$A$2:$A$6)</f>
+        <v>3</v>
+      </c>
+      <c r="C15" t="s">
+        <v>8</v>
+      </c>
+      <c r="D15" s="4">
+        <f>LOOKUP(E15,PartnerName!$B$2:$B$6,PartnerName!$A$2:$A$6)</f>
+        <v>2</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F15" s="11">
+        <v>670000</v>
+      </c>
+      <c r="G15" s="12">
+        <v>45240</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="4">
+        <v>15</v>
+      </c>
+      <c r="B16" s="4">
+        <f>LOOKUP(C16,Products_import!$D$2:$D$6,Products_import!$A$2:$A$6)</f>
+        <v>4</v>
+      </c>
+      <c r="C16" t="s">
+        <v>4</v>
+      </c>
+      <c r="D16" s="4">
+        <f>LOOKUP(E16,PartnerName!$B$2:$B$6,PartnerName!$A$2:$A$6)</f>
+        <v>2</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F16" s="11">
+        <v>35000</v>
+      </c>
+      <c r="G16" s="12">
+        <v>45397</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="4">
+        <v>16</v>
+      </c>
+      <c r="B17" s="4">
+        <f>LOOKUP(C17,Products_import!$D$2:$D$6,Products_import!$A$2:$A$6)</f>
+        <v>1</v>
+      </c>
+      <c r="C17" t="s">
+        <v>5</v>
+      </c>
+      <c r="D17" s="4">
+        <f>LOOKUP(E17,PartnerName!$B$2:$B$6,PartnerName!$A$2:$A$6)</f>
+        <v>2</v>
+      </c>
+      <c r="E17" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F17" s="11">
+        <v>25000</v>
+      </c>
+      <c r="G17" s="12">
+        <v>45455</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.140625" style="4"/>
+    <col min="2" max="2" width="16.140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="9.140625" style="4"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="4">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C2" s="13">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="4">
+        <v>2</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C3" s="13">
+        <v>9.4999999999999998E-3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C4" s="13">
+        <v>2.8E-3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="4">
+        <v>4</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C5" s="13">
+        <v>5.4999999999999997E-3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="4">
+        <v>5</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C6" s="13">
+        <v>3.3999999999999998E-3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C7"/>
@@ -966,10 +1660,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O32"/>
+  <dimension ref="A1:K32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G28" sqref="G28"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O6" sqref="O6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -979,18 +1673,15 @@
     <col min="3" max="3" width="12.7109375" style="4" hidden="1" customWidth="1"/>
     <col min="4" max="4" width="14.7109375" style="4" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="24.28515625" style="4" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="32.7109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="28" style="4" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="21" style="4" customWidth="1"/>
-    <col min="9" max="9" width="7.7109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="23.140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="13.85546875" style="4" customWidth="1"/>
-    <col min="14" max="14" width="12.5703125" style="4" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="4"/>
+    <col min="6" max="6" width="24.28515625" style="4" customWidth="1"/>
+    <col min="7" max="7" width="32.7109375" style="4" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="28" style="4" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="21" style="4" customWidth="1"/>
+    <col min="10" max="10" width="12.5703125" style="4" customWidth="1"/>
+    <col min="11" max="16384" width="9.140625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>52</v>
       </c>
@@ -1007,37 +1698,25 @@
         <v>38</v>
       </c>
       <c r="F1" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="I1" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="I1" s="2" t="s">
-        <v>56</v>
-      </c>
       <c r="J1" s="2" t="s">
-        <v>57</v>
+        <v>34</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="N1" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="O1" s="2" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
         <v>1</v>
       </c>
@@ -1055,38 +1734,27 @@
       <c r="E2" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="F2" s="6">
+        <f>LOOKUP(G2,DirectorName!$B$2:$B$6,DirectorName!$A$2:$A$6)</f>
+        <v>2</v>
+      </c>
+      <c r="G2" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="H2" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="H2" s="7" t="s">
+      <c r="I2" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="I2" s="4">
-        <v>652050</v>
-      </c>
-      <c r="J2" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="K2" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="L2" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="M2" s="4">
-        <v>15</v>
-      </c>
-      <c r="N2" s="4">
+      <c r="J2" s="4">
         <v>2222455179</v>
       </c>
-      <c r="O2" s="4">
+      <c r="K2" s="4">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
         <v>2</v>
       </c>
@@ -1104,38 +1772,27 @@
       <c r="E3" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="F3" s="6" t="s">
+      <c r="F3" s="6">
+        <f>LOOKUP(G3,DirectorName!$B$2:$B$6,DirectorName!$A$2:$A$6)</f>
+        <v>3</v>
+      </c>
+      <c r="G3" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="G3" s="6" t="s">
+      <c r="H3" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="H3" s="7" t="s">
+      <c r="I3" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="I3" s="4">
-        <v>164500</v>
-      </c>
-      <c r="J3" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="K3" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="L3" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="M3" s="4">
-        <v>18</v>
-      </c>
-      <c r="N3" s="4">
+      <c r="J3" s="4">
         <v>3333888520</v>
       </c>
-      <c r="O3" s="4">
+      <c r="K3" s="4">
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
         <v>3</v>
       </c>
@@ -1153,38 +1810,27 @@
       <c r="E4" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="F4" s="6" t="s">
+      <c r="F4" s="6">
+        <f>LOOKUP(G4,DirectorName!$B$2:$B$6,DirectorName!$A$2:$A$6)</f>
+        <v>4</v>
+      </c>
+      <c r="G4" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="G4" s="6" t="s">
+      <c r="H4" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="H4" s="7" t="s">
+      <c r="I4" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="I4" s="4">
-        <v>188910</v>
-      </c>
-      <c r="J4" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="K4" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="L4" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="M4" s="4">
-        <v>21</v>
-      </c>
-      <c r="N4" s="4">
+      <c r="J4" s="4">
         <v>4440391035</v>
       </c>
-      <c r="O4" s="4">
+      <c r="K4" s="4">
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
         <v>4</v>
       </c>
@@ -1202,38 +1848,27 @@
       <c r="E5" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="F5" s="6" t="s">
+      <c r="F5" s="6">
+        <f>LOOKUP(G5,DirectorName!$B$2:$B$6,DirectorName!$A$2:$A$6)</f>
+        <v>1</v>
+      </c>
+      <c r="G5" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="G5" s="6" t="s">
+      <c r="H5" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="H5" s="7" t="s">
+      <c r="I5" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="I5" s="4">
-        <v>143960</v>
-      </c>
-      <c r="J5" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="K5" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="L5" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="M5" s="4">
-        <v>51</v>
-      </c>
-      <c r="N5" s="4">
+      <c r="J5" s="4">
         <v>1111520857</v>
       </c>
-      <c r="O5" s="4">
+      <c r="K5" s="4">
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <v>5</v>
       </c>
@@ -1251,59 +1886,48 @@
       <c r="E6" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="F6" s="6" t="s">
+      <c r="F6" s="6">
+        <f>LOOKUP(G6,DirectorName!$B$2:$B$6,DirectorName!$A$2:$A$6)</f>
+        <v>5</v>
+      </c>
+      <c r="G6" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="G6" s="6" t="s">
+      <c r="H6" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="H6" s="7" t="s">
+      <c r="I6" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="I6" s="4">
-        <v>309500</v>
-      </c>
-      <c r="J6" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="K6" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="L6" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="M6" s="4">
-        <v>122</v>
-      </c>
-      <c r="N6" s="4">
+      <c r="J6" s="4">
         <v>5552431140</v>
       </c>
-      <c r="O6" s="4">
+      <c r="K6" s="4">
         <v>10</v>
       </c>
     </row>
-    <row r="28" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F28" s="7"/>
-    </row>
-    <row r="29" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F29" s="7"/>
-    </row>
-    <row r="30" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F30" s="7"/>
-    </row>
-    <row r="31" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F31" s="7"/>
-    </row>
-    <row r="32" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F32" s="7"/>
+    <row r="28" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G28" s="7"/>
+    </row>
+    <row r="29" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G29" s="7"/>
+    </row>
+    <row r="30" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G30" s="7"/>
+    </row>
+    <row r="31" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G31" s="7"/>
+    </row>
+    <row r="32" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G32" s="7"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="G2" r:id="rId1"/>
-    <hyperlink ref="G3" r:id="rId2"/>
-    <hyperlink ref="G4" r:id="rId3"/>
-    <hyperlink ref="G6" r:id="rId4"/>
-    <hyperlink ref="G5" r:id="rId5"/>
+    <hyperlink ref="H2" r:id="rId1"/>
+    <hyperlink ref="H3" r:id="rId2"/>
+    <hyperlink ref="H4" r:id="rId3"/>
+    <hyperlink ref="H6" r:id="rId4"/>
+    <hyperlink ref="H5" r:id="rId5"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId6"/>
@@ -1312,62 +1936,248 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:J7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="J24" sqref="J24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="9.140625" style="4"/>
+    <col min="3" max="3" width="0" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="15.28515625" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="15.28515625" customWidth="1"/>
+    <col min="7" max="7" width="14.140625" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="14.140625" customWidth="1"/>
+    <col min="9" max="9" width="11.85546875" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="4">
-        <v>1</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="4">
-        <v>2</v>
-      </c>
-      <c r="B3" s="4" t="s">
+    <row r="1" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <f>LOOKUP(C2,Index!$B$2:$B$6,Index!$A$2:$A$6)</f>
+        <v>5</v>
+      </c>
+      <c r="C2" s="4">
+        <v>652050</v>
+      </c>
+      <c r="D2" s="4">
+        <f>LOOKUP(E2,Area!$B$2:$B$6,Area!$A$2:$A$6)</f>
+        <v>3</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="F2" s="4">
+        <f>LOOKUP(G2,City!$B$2:$B$6,City!$A$2:$A$6)</f>
+        <v>5</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="H2" s="4">
+        <f>LOOKUP(I2,Street!$B$2:$B$6,Street!$A$2:$A$6)</f>
+        <v>1</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="J2" s="4">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <f>LOOKUP(C3,Index!$B$2:$B$6,Index!$A$2:$A$6)</f>
+        <v>2</v>
+      </c>
+      <c r="C3" s="4">
+        <v>164500</v>
+      </c>
+      <c r="D3" s="4">
+        <f>LOOKUP(E3,Area!$B$2:$B$6,Area!$A$2:$A$6)</f>
+        <v>1</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="F3" s="4">
+        <f>LOOKUP(G3,City!$B$2:$B$6,City!$A$2:$A$6)</f>
+        <v>3</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="H3" s="4">
+        <f>LOOKUP(I3,Street!$B$2:$B$6,Street!$A$2:$A$6)</f>
+        <v>5</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="J3" s="4">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <f>LOOKUP(C4,Index!$B$2:$B$6,Index!$A$2:$A$6)</f>
+        <v>3</v>
+      </c>
+      <c r="C4" s="4">
+        <v>188910</v>
+      </c>
+      <c r="D4" s="4">
+        <f>LOOKUP(E4,Area!$B$2:$B$6,Area!$A$2:$A$6)</f>
+        <v>4</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="F4" s="4">
+        <f>LOOKUP(G4,City!$B$2:$B$6,City!$A$2:$A$6)</f>
+        <v>1</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="H4" s="4">
+        <f>LOOKUP(I4,Street!$B$2:$B$6,Street!$A$2:$A$6)</f>
+        <v>2</v>
+      </c>
+      <c r="I4" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="J4" s="4">
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="4">
-        <v>3</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="4">
-        <v>4</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>25</v>
-      </c>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <f>LOOKUP(C5,Index!$B$2:$B$6,Index!$A$2:$A$6)</f>
+        <v>1</v>
+      </c>
+      <c r="C5" s="4">
+        <v>143960</v>
+      </c>
+      <c r="D5" s="4">
+        <f>LOOKUP(E5,Area!$B$2:$B$6,Area!$A$2:$A$6)</f>
+        <v>5</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="F5" s="4">
+        <f>LOOKUP(G5,City!$B$2:$B$6,City!$A$2:$A$6)</f>
+        <v>2</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="H5" s="4">
+        <f>LOOKUP(I5,Street!$B$2:$B$6,Street!$A$2:$A$6)</f>
+        <v>4</v>
+      </c>
+      <c r="I5" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="J5" s="4">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <f>LOOKUP(C6,Index!$B$2:$B$6,Index!$A$2:$A$6)</f>
+        <v>4</v>
+      </c>
+      <c r="C6" s="4">
+        <v>309500</v>
+      </c>
+      <c r="D6" s="4">
+        <f>LOOKUP(E6,Area!$B$2:$B$6,Area!$A$2:$A$6)</f>
+        <v>2</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="F6" s="4">
+        <f>LOOKUP(G6,City!$B$2:$B$6,City!$A$2:$A$6)</f>
+        <v>4</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="H6" s="4">
+        <f>LOOKUP(I6,Street!$B$2:$B$6,Street!$A$2:$A$6)</f>
+        <v>3</v>
+      </c>
+      <c r="I6" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="J6" s="4">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="4"/>
+      <c r="J7" s="4"/>
     </row>
   </sheetData>
-  <sortState ref="A1:B6">
-    <sortCondition ref="B2"/>
-  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1376,66 +2186,64 @@
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="4"/>
-    <col min="2" max="2" width="17.5703125" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="9.140625" style="4"/>
+    <col min="2" max="2" width="11.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>54</v>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B1" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="4">
-        <v>1</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>32</v>
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="4">
-        <v>2</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>16</v>
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="4">
-        <v>3</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>28</v>
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="4">
-        <v>4</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>20</v>
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="4">
+      <c r="A6">
         <v>5</v>
       </c>
-      <c r="B6" s="6" t="s">
-        <v>24</v>
+      <c r="B6" s="4" t="s">
+        <v>71</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:B17">
+  <sortState ref="A2:B6">
     <sortCondition ref="B2"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1444,448 +2252,69 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G17"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I28" sqref="I28"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="4"/>
-    <col min="2" max="2" width="16.140625" style="4" customWidth="1"/>
-    <col min="3" max="3" width="57.42578125" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="23.85546875" style="4" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="21.85546875" style="4" customWidth="1"/>
-    <col min="7" max="7" width="15.5703125" style="4" customWidth="1"/>
-    <col min="8" max="16384" width="9.140625" style="4"/>
+    <col min="2" max="2" width="14.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
         <v>52</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="F1" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="G1" s="10" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="4">
-        <v>1</v>
-      </c>
-      <c r="B2" s="4">
-        <f>LOOKUP(C2,Products_import!$D$2:$D$6,Products_import!$A$2:$A$6)</f>
-        <v>4</v>
-      </c>
-      <c r="C2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" s="4">
-        <f>LOOKUP(E2,PartnerName!$B$2:$B$6,PartnerName!$A$2:$A$6)</f>
-        <v>1</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="F2" s="11">
-        <v>15500</v>
-      </c>
-      <c r="G2" s="12">
-        <v>45008</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="4">
-        <v>2</v>
-      </c>
-      <c r="B3" s="4">
-        <f>LOOKUP(C3,Products_import!$D$2:$D$6,Products_import!$A$2:$A$6)</f>
-        <v>2</v>
-      </c>
-      <c r="C3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" s="4">
-        <f>LOOKUP(E3,PartnerName!$B$2:$B$6,PartnerName!$A$2:$A$6)</f>
-        <v>1</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="F3" s="11">
-        <v>12350</v>
-      </c>
-      <c r="G3" s="12">
-        <v>45278</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="4">
-        <v>3</v>
-      </c>
-      <c r="B4" s="4">
-        <f>LOOKUP(C4,Products_import!$D$2:$D$6,Products_import!$A$2:$A$6)</f>
-        <v>3</v>
-      </c>
-      <c r="C4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" s="4">
-        <f>LOOKUP(E4,PartnerName!$B$2:$B$6,PartnerName!$A$2:$A$6)</f>
-        <v>1</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="F4" s="11">
-        <v>37400</v>
-      </c>
-      <c r="G4" s="12">
-        <v>45450</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="4">
-        <v>4</v>
-      </c>
-      <c r="B5" s="4">
-        <f>LOOKUP(C5,Products_import!$D$2:$D$6,Products_import!$A$2:$A$6)</f>
-        <v>1</v>
-      </c>
-      <c r="C5" t="s">
+      <c r="B1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6">
         <v>5</v>
       </c>
-      <c r="D5" s="4">
-        <f>LOOKUP(E5,PartnerName!$B$2:$B$6,PartnerName!$A$2:$A$6)</f>
-        <v>3</v>
-      </c>
-      <c r="E5" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="F5" s="11">
-        <v>35000</v>
-      </c>
-      <c r="G5" s="12">
-        <v>44897</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="4">
-        <v>5</v>
-      </c>
-      <c r="B6" s="4">
-        <f>LOOKUP(C6,Products_import!$D$2:$D$6,Products_import!$A$2:$A$6)</f>
-        <v>5</v>
-      </c>
-      <c r="C6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" s="4">
-        <f>LOOKUP(E6,PartnerName!$B$2:$B$6,PartnerName!$A$2:$A$6)</f>
-        <v>3</v>
-      </c>
-      <c r="E6" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="F6" s="11">
-        <v>1250</v>
-      </c>
-      <c r="G6" s="12">
-        <v>45063</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="4">
-        <v>6</v>
-      </c>
-      <c r="B7" s="4">
-        <f>LOOKUP(C7,Products_import!$D$2:$D$6,Products_import!$A$2:$A$6)</f>
-        <v>2</v>
-      </c>
-      <c r="C7" t="s">
-        <v>7</v>
-      </c>
-      <c r="D7" s="4">
-        <f>LOOKUP(E7,PartnerName!$B$2:$B$6,PartnerName!$A$2:$A$6)</f>
-        <v>3</v>
-      </c>
-      <c r="E7" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="F7" s="11">
-        <v>1000</v>
-      </c>
-      <c r="G7" s="12">
-        <v>45450</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="4">
-        <v>7</v>
-      </c>
-      <c r="B8" s="4">
-        <f>LOOKUP(C8,Products_import!$D$2:$D$6,Products_import!$A$2:$A$6)</f>
-        <v>4</v>
-      </c>
-      <c r="C8" t="s">
-        <v>4</v>
-      </c>
-      <c r="D8" s="4">
-        <f>LOOKUP(E8,PartnerName!$B$2:$B$6,PartnerName!$A$2:$A$6)</f>
-        <v>3</v>
-      </c>
-      <c r="E8" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="F8" s="11">
-        <v>7550</v>
-      </c>
-      <c r="G8" s="12">
-        <v>45474</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="4">
-        <v>8</v>
-      </c>
-      <c r="B9" s="4">
-        <f>LOOKUP(C9,Products_import!$D$2:$D$6,Products_import!$A$2:$A$6)</f>
-        <v>4</v>
-      </c>
-      <c r="C9" t="s">
-        <v>4</v>
-      </c>
-      <c r="D9" s="4">
-        <f>LOOKUP(E9,PartnerName!$B$2:$B$6,PartnerName!$A$2:$A$6)</f>
-        <v>5</v>
-      </c>
-      <c r="E9" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="F9" s="11">
-        <v>7250</v>
-      </c>
-      <c r="G9" s="12">
-        <v>44948</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="4">
-        <v>9</v>
-      </c>
-      <c r="B10" s="4">
-        <f>LOOKUP(C10,Products_import!$D$2:$D$6,Products_import!$A$2:$A$6)</f>
-        <v>1</v>
-      </c>
-      <c r="C10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D10" s="4">
-        <f>LOOKUP(E10,PartnerName!$B$2:$B$6,PartnerName!$A$2:$A$6)</f>
-        <v>5</v>
-      </c>
-      <c r="E10" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="F10" s="11">
-        <v>2500</v>
-      </c>
-      <c r="G10" s="12">
-        <v>45478</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="4">
-        <v>10</v>
-      </c>
-      <c r="B11" s="4">
-        <f>LOOKUP(C11,Products_import!$D$2:$D$6,Products_import!$A$2:$A$6)</f>
-        <v>3</v>
-      </c>
-      <c r="C11" t="s">
-        <v>8</v>
-      </c>
-      <c r="D11" s="4">
-        <f>LOOKUP(E11,PartnerName!$B$2:$B$6,PartnerName!$A$2:$A$6)</f>
-        <v>4</v>
-      </c>
-      <c r="E11" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="F11" s="11">
-        <v>59050</v>
-      </c>
-      <c r="G11" s="12">
-        <v>45005</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="4">
-        <v>11</v>
-      </c>
-      <c r="B12" s="4">
-        <f>LOOKUP(C12,Products_import!$D$2:$D$6,Products_import!$A$2:$A$6)</f>
-        <v>2</v>
-      </c>
-      <c r="C12" t="s">
-        <v>7</v>
-      </c>
-      <c r="D12" s="4">
-        <f>LOOKUP(E12,PartnerName!$B$2:$B$6,PartnerName!$A$2:$A$6)</f>
-        <v>4</v>
-      </c>
-      <c r="E12" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="F12" s="11">
-        <v>37200</v>
-      </c>
-      <c r="G12" s="12">
-        <v>45363</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="4">
-        <v>12</v>
-      </c>
-      <c r="B13" s="4">
-        <f>LOOKUP(C13,Products_import!$D$2:$D$6,Products_import!$A$2:$A$6)</f>
-        <v>5</v>
-      </c>
-      <c r="C13" t="s">
-        <v>10</v>
-      </c>
-      <c r="D13" s="4">
-        <f>LOOKUP(E13,PartnerName!$B$2:$B$6,PartnerName!$A$2:$A$6)</f>
-        <v>4</v>
-      </c>
-      <c r="E13" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="F13" s="11">
-        <v>4500</v>
-      </c>
-      <c r="G13" s="12">
-        <v>45426</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="4">
-        <v>13</v>
-      </c>
-      <c r="B14" s="4">
-        <f>LOOKUP(C14,Products_import!$D$2:$D$6,Products_import!$A$2:$A$6)</f>
-        <v>2</v>
-      </c>
-      <c r="C14" t="s">
-        <v>7</v>
-      </c>
-      <c r="D14" s="4">
-        <f>LOOKUP(E14,PartnerName!$B$2:$B$6,PartnerName!$A$2:$A$6)</f>
-        <v>2</v>
-      </c>
-      <c r="E14" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="F14" s="11">
-        <v>50000</v>
-      </c>
-      <c r="G14" s="12">
-        <v>45188</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="4">
-        <v>14</v>
-      </c>
-      <c r="B15" s="4">
-        <f>LOOKUP(C15,Products_import!$D$2:$D$6,Products_import!$A$2:$A$6)</f>
-        <v>3</v>
-      </c>
-      <c r="C15" t="s">
-        <v>8</v>
-      </c>
-      <c r="D15" s="4">
-        <f>LOOKUP(E15,PartnerName!$B$2:$B$6,PartnerName!$A$2:$A$6)</f>
-        <v>2</v>
-      </c>
-      <c r="E15" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="F15" s="11">
-        <v>670000</v>
-      </c>
-      <c r="G15" s="12">
-        <v>45240</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="4">
-        <v>15</v>
-      </c>
-      <c r="B16" s="4">
-        <f>LOOKUP(C16,Products_import!$D$2:$D$6,Products_import!$A$2:$A$6)</f>
-        <v>4</v>
-      </c>
-      <c r="C16" t="s">
-        <v>4</v>
-      </c>
-      <c r="D16" s="4">
-        <f>LOOKUP(E16,PartnerName!$B$2:$B$6,PartnerName!$A$2:$A$6)</f>
-        <v>2</v>
-      </c>
-      <c r="E16" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="F16" s="11">
-        <v>35000</v>
-      </c>
-      <c r="G16" s="12">
-        <v>45397</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="4">
-        <v>16</v>
-      </c>
-      <c r="B17" s="4">
-        <f>LOOKUP(C17,Products_import!$D$2:$D$6,Products_import!$A$2:$A$6)</f>
-        <v>1</v>
-      </c>
-      <c r="C17" t="s">
-        <v>5</v>
-      </c>
-      <c r="D17" s="4">
-        <f>LOOKUP(E17,PartnerName!$B$2:$B$6,PartnerName!$A$2:$A$6)</f>
-        <v>2</v>
-      </c>
-      <c r="E17" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="F17" s="11">
-        <v>25000</v>
-      </c>
-      <c r="G17" s="12">
-        <v>45455</v>
+      <c r="B6" s="4" t="s">
+        <v>63</v>
       </c>
     </row>
   </sheetData>
+  <sortState ref="A2:B6">
+    <sortCondition ref="B2"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1895,65 +2324,204 @@
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="9.140625" style="4"/>
+    <col min="2" max="2" width="15.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>48</v>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B1" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="B2" s="13">
-        <v>1E-3</v>
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="B3" s="13">
-        <v>9.4999999999999998E-3</v>
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="B4" s="13">
-        <v>2.8E-3</v>
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="B5" s="13">
-        <v>5.4999999999999997E-3</v>
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="B6" s="13">
-        <v>3.3999999999999998E-3</v>
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>61</v>
       </c>
     </row>
   </sheetData>
+  <sortState ref="A2:B6">
+    <sortCondition ref="B2"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="10.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4">
+        <v>143960</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="4">
+        <v>164500</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="4">
+        <v>188910</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" s="4">
+        <v>309500</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" s="4">
+        <v>652050</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState ref="A2:B6">
+    <sortCondition ref="B2"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="32.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState ref="A2:B6">
+    <sortCondition ref="B2"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>